--- a/data/不背单词数据字典.xlsx
+++ b/data/不背单词数据字典.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitee\bubei\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3803F7-2098-41C1-BB4B-44FB6CD28D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47BE237-554C-4DFB-8132-507AF23B8999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="不背单词" sheetId="7" r:id="rId1"/>
-    <sheet name="例" sheetId="9" r:id="rId2"/>
+    <sheet name="备份" sheetId="11" r:id="rId2"/>
+    <sheet name="例" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="155">
   <si>
     <t>表名</t>
   </si>
@@ -365,6 +366,257 @@
   </si>
   <si>
     <t>phraseRelationID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句信息索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句汉语意思</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句英文意思</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>japaneseMeans</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句日语意思</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentencesRelaction
+例句关系</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentencesRelaction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句关系索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语信息索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语日文意思</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语汉语意思</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语英文意思</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>短语关系信息索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、短语；2、例句</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像链接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积学时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userStudyHistory
+用户学习历史记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentencesRelactionID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userStudyHistoryID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户学习历史记录索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习的次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordBookID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户当前选择的词书</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordBook
+词书</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordBookRelation
+词书关系</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordBookName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordBookRelationID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordBookKind</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>词书类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>词书名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>词书索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordBookLabel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>词书标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>词书关系索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userStudyWordRecord
+用户学习单词记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userStudyWordRecordID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyWordCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNotStudyWordRecord
+用户未学习单词记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNotStudyWordRecord</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户学习单词记录索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isStudy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词日语意思</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroundImage
+背景图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroundImageID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图base64</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图链接</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +672,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +706,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -571,29 +841,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -619,6 +867,74 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -925,20 +1241,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFA92"/>
+  <dimension ref="A1:XFA146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96:C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="42.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.77734375" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="8.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" customWidth="1"/>
     <col min="9" max="9" width="15.21875" customWidth="1"/>
     <col min="10" max="10" width="64.109375" customWidth="1"/>
@@ -1474,11 +1790,3504 @@
       <c r="XEZ2"/>
       <c r="XFA2"/>
     </row>
+    <row r="3" spans="1:27 16127:16381" s="51" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A3" s="48">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="49">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="49">
+        <v>32</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27 16127:16381" s="51" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="49">
+        <v>2</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27 16127:16381" s="51" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="49">
+        <v>2</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27 16127:16381" s="51" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="49">
+        <v>3</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="49">
+        <v>32</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27 16127:16381" s="51" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="49">
+        <v>4</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27 16127:16381" s="51" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="49">
+        <v>5</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27 16127:16381" s="51" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="49">
+        <v>6</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27 16127:16381" s="51" customFormat="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="49">
+        <v>7</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="49">
+        <v>11</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27 16127:16381" s="51" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="49">
+        <v>8</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="49">
+        <v>11</v>
+      </c>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27 16127:16381" s="51" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="49">
+        <v>8</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="49">
+        <v>11</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27 16127:16381" s="51" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="49">
+        <v>8</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="49">
+        <v>11</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27 16127:16381" s="51" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="49">
+        <v>8</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="49">
+        <v>11</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27 16127:16381" s="51" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="49">
+        <v>10</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27 16127:16381" s="51" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="49">
+        <v>11</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="51" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="49">
+        <v>12</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="51" customFormat="1">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="49">
+        <v>9</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="49">
+        <v>11</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="51" customFormat="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="49">
+        <v>10</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="49">
+        <v>64</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="51" customFormat="1">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="49">
+        <v>11</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="49">
+        <v>0</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="51" customFormat="1">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="49">
+        <v>12</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="49">
+        <v>64</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="51" customFormat="1">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="49">
+        <v>13</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="49">
+        <v>0</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="11" customFormat="1"/>
+    <row r="24" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A24" s="23">
+        <v>2</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="16">
+        <v>32</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="16">
+        <v>2</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="15" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="16">
+        <v>3</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="16">
+        <v>4</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="16">
+        <v>4</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="16">
+        <v>5</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="16">
+        <v>6</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="16">
+        <v>7</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="16">
+        <v>8</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="16">
+        <v>9</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="16">
+        <v>10</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="16">
+        <v>11</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="16">
+        <v>12</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="11" customFormat="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="16">
+        <v>13</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="16">
+        <v>11</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="11" customFormat="1">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="16">
+        <v>14</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="16">
+        <v>64</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="11" customFormat="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="16">
+        <v>15</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="11" customFormat="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="16">
+        <v>16</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="16">
+        <v>64</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="11" customFormat="1">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="16">
+        <v>17</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A43" s="30">
+        <v>3</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="31">
+        <v>1</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="31">
+        <v>32</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="31">
+        <v>2</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="31">
+        <v>3</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="31">
+        <v>4</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="31">
+        <v>4</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="31">
+        <v>5</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="31">
+        <v>6</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="31">
+        <v>7</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="20" customFormat="1">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="31">
+        <v>8</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="31">
+        <v>11</v>
+      </c>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="20" customFormat="1">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="31">
+        <v>9</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="31">
+        <v>64</v>
+      </c>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="20" customFormat="1">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="31">
+        <v>10</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="31">
+        <v>0</v>
+      </c>
+      <c r="I53" s="31"/>
+      <c r="J53" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="20" customFormat="1">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="31">
+        <v>11</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="31">
+        <v>64</v>
+      </c>
+      <c r="I54" s="31"/>
+      <c r="J54" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="20" customFormat="1">
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="31">
+        <v>12</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="31">
+        <v>0</v>
+      </c>
+      <c r="I55" s="31"/>
+      <c r="J55" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A57" s="35">
+        <v>4</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="36">
+        <v>1</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="36">
+        <v>32</v>
+      </c>
+      <c r="I57" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="36">
+        <v>2</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="36">
+        <v>3</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="36">
+        <v>5</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="36">
+        <v>6</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="36">
+        <v>7</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="20" customFormat="1">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="36">
+        <v>8</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="36">
+        <v>11</v>
+      </c>
+      <c r="I63" s="36"/>
+      <c r="J63" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="20" customFormat="1">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="36">
+        <v>9</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="36">
+        <v>64</v>
+      </c>
+      <c r="I64" s="36"/>
+      <c r="J64" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="20" customFormat="1">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="36">
+        <v>10</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="36">
+        <v>0</v>
+      </c>
+      <c r="I65" s="36"/>
+      <c r="J65" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="20" customFormat="1">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="36">
+        <v>11</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="36">
+        <v>64</v>
+      </c>
+      <c r="I66" s="36"/>
+      <c r="J66" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="20" customFormat="1">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="36">
+        <v>12</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="36">
+        <v>0</v>
+      </c>
+      <c r="I67" s="36"/>
+      <c r="J67" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A69" s="48">
+        <v>5</v>
+      </c>
+      <c r="B69" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="49">
+        <v>1</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="49">
+        <v>32</v>
+      </c>
+      <c r="I69" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="49">
+        <v>2</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="49">
+        <v>3</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="49">
+        <v>3</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="49"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="49">
+        <v>4</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="49">
+        <v>5</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="49">
+        <v>6</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="49">
+        <v>7</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="49"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="20" customFormat="1">
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="49">
+        <v>8</v>
+      </c>
+      <c r="D77" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="49">
+        <v>11</v>
+      </c>
+      <c r="I77" s="49"/>
+      <c r="J77" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="20" customFormat="1">
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="49">
+        <v>9</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="49">
+        <v>64</v>
+      </c>
+      <c r="I78" s="49"/>
+      <c r="J78" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="20" customFormat="1">
+      <c r="A79" s="52"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="49">
+        <v>10</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="H79" s="49">
+        <v>0</v>
+      </c>
+      <c r="I79" s="49"/>
+      <c r="J79" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="20" customFormat="1">
+      <c r="A80" s="52"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="49">
+        <v>11</v>
+      </c>
+      <c r="D80" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="49">
+        <v>64</v>
+      </c>
+      <c r="I80" s="49"/>
+      <c r="J80" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="20" customFormat="1">
+      <c r="A81" s="53"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="49">
+        <v>12</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="49">
+        <v>0</v>
+      </c>
+      <c r="I81" s="49"/>
+      <c r="J81" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A83" s="35">
+        <v>6</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="36">
+        <v>1</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="36">
+        <v>32</v>
+      </c>
+      <c r="I83" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="36">
+        <v>2</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="36">
+        <v>3</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="36">
+        <v>4</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="36">
+        <v>5</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="36">
+        <v>6</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="36">
+        <v>7</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="20" customFormat="1">
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="36">
+        <v>8</v>
+      </c>
+      <c r="D90" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="36">
+        <v>11</v>
+      </c>
+      <c r="I90" s="36"/>
+      <c r="J90" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="20" customFormat="1">
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="36">
+        <v>9</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="36">
+        <v>64</v>
+      </c>
+      <c r="I91" s="36"/>
+      <c r="J91" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="20" customFormat="1">
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="36">
+        <v>10</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H92" s="36">
+        <v>0</v>
+      </c>
+      <c r="I92" s="36"/>
+      <c r="J92" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="20" customFormat="1">
+      <c r="A93" s="38"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="36">
+        <v>11</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="36">
+        <v>64</v>
+      </c>
+      <c r="I93" s="36"/>
+      <c r="J93" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="20" customFormat="1">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="36">
+        <v>12</v>
+      </c>
+      <c r="D94" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H94" s="36">
+        <v>0</v>
+      </c>
+      <c r="I94" s="36"/>
+      <c r="J94" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A96" s="48">
+        <v>7</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="49">
+        <v>1</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H96" s="49">
+        <v>32</v>
+      </c>
+      <c r="I96" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" s="50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="49">
+        <v>2</v>
+      </c>
+      <c r="D97" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="49">
+        <v>3</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" s="49"/>
+      <c r="F98" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49"/>
+      <c r="J98" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="49">
+        <v>4</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" s="49"/>
+      <c r="F99" s="49"/>
+      <c r="G99" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49"/>
+      <c r="J99" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A100" s="52"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="49">
+        <v>5</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A101" s="52"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="49">
+        <v>6</v>
+      </c>
+      <c r="D101" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E101" s="49"/>
+      <c r="F101" s="49"/>
+      <c r="G101" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="49"/>
+      <c r="I101" s="49"/>
+      <c r="J101" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="20" customFormat="1">
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="49">
+        <v>7</v>
+      </c>
+      <c r="D102" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" s="49"/>
+      <c r="F102" s="49"/>
+      <c r="G102" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H102" s="49">
+        <v>11</v>
+      </c>
+      <c r="I102" s="49"/>
+      <c r="J102" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="20" customFormat="1">
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="49">
+        <v>8</v>
+      </c>
+      <c r="D103" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E103" s="49"/>
+      <c r="F103" s="49"/>
+      <c r="G103" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="49">
+        <v>64</v>
+      </c>
+      <c r="I103" s="49"/>
+      <c r="J103" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="20" customFormat="1">
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="49">
+        <v>9</v>
+      </c>
+      <c r="D104" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E104" s="49"/>
+      <c r="F104" s="49"/>
+      <c r="G104" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="H104" s="49">
+        <v>0</v>
+      </c>
+      <c r="I104" s="49"/>
+      <c r="J104" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="20" customFormat="1">
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="49">
+        <v>10</v>
+      </c>
+      <c r="D105" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="49">
+        <v>64</v>
+      </c>
+      <c r="I105" s="49"/>
+      <c r="J105" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="20" customFormat="1">
+      <c r="A106" s="53"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="49">
+        <v>11</v>
+      </c>
+      <c r="D106" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="49">
+        <v>0</v>
+      </c>
+      <c r="I106" s="49"/>
+      <c r="J106" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A109" s="35">
+        <v>8</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="36">
+        <v>1</v>
+      </c>
+      <c r="D109" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="36">
+        <v>32</v>
+      </c>
+      <c r="I109" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A110" s="38"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="36">
+        <v>2</v>
+      </c>
+      <c r="D110" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="36"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A111" s="38"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="36">
+        <v>3</v>
+      </c>
+      <c r="D111" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="36"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A112" s="38"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="36">
+        <v>4</v>
+      </c>
+      <c r="D112" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A113" s="38"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="36">
+        <v>5</v>
+      </c>
+      <c r="D113" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A114" s="38"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="36">
+        <v>6</v>
+      </c>
+      <c r="D114" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A115" s="38"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="36">
+        <v>7</v>
+      </c>
+      <c r="D115" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="36">
+        <v>8</v>
+      </c>
+      <c r="D116" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="20" customFormat="1">
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
+      <c r="C117" s="36">
+        <v>9</v>
+      </c>
+      <c r="D117" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" s="36"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H117" s="36">
+        <v>11</v>
+      </c>
+      <c r="I117" s="36"/>
+      <c r="J117" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="20" customFormat="1">
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="36">
+        <v>10</v>
+      </c>
+      <c r="D118" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E118" s="36"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="36">
+        <v>64</v>
+      </c>
+      <c r="I118" s="36"/>
+      <c r="J118" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="20" customFormat="1">
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="36">
+        <v>11</v>
+      </c>
+      <c r="D119" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H119" s="36">
+        <v>0</v>
+      </c>
+      <c r="I119" s="36"/>
+      <c r="J119" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="20" customFormat="1">
+      <c r="A120" s="38"/>
+      <c r="B120" s="38"/>
+      <c r="C120" s="36">
+        <v>12</v>
+      </c>
+      <c r="D120" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="36">
+        <v>64</v>
+      </c>
+      <c r="I120" s="36"/>
+      <c r="J120" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="20" customFormat="1">
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="36">
+        <v>13</v>
+      </c>
+      <c r="D121" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" s="36">
+        <v>0</v>
+      </c>
+      <c r="I121" s="36"/>
+      <c r="J121" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A123" s="48">
+        <v>9</v>
+      </c>
+      <c r="B123" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="49">
+        <v>1</v>
+      </c>
+      <c r="D123" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E123" s="49"/>
+      <c r="F123" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G123" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" s="49">
+        <v>32</v>
+      </c>
+      <c r="I123" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" s="50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A124" s="52"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="49">
+        <v>2</v>
+      </c>
+      <c r="D124" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124" s="49"/>
+      <c r="F124" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="49"/>
+      <c r="I124" s="49"/>
+      <c r="J124" s="50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A125" s="52"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="49">
+        <v>3</v>
+      </c>
+      <c r="D125" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="49"/>
+      <c r="F125" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G125" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="49">
+        <v>4</v>
+      </c>
+      <c r="D126" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E126" s="49"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" s="49"/>
+      <c r="I126" s="49"/>
+      <c r="J126" s="50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="49">
+        <v>5</v>
+      </c>
+      <c r="D127" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E127" s="49"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="49"/>
+      <c r="I127" s="49"/>
+      <c r="J127" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A128" s="52"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="49">
+        <v>6</v>
+      </c>
+      <c r="D128" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="49"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="49"/>
+      <c r="I128" s="49"/>
+      <c r="J128" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A129" s="52"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="49">
+        <v>7</v>
+      </c>
+      <c r="D129" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E129" s="49"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="49"/>
+      <c r="I129" s="49"/>
+      <c r="J129" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="20" customFormat="1">
+      <c r="A130" s="52"/>
+      <c r="B130" s="52"/>
+      <c r="C130" s="49">
+        <v>8</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" s="49"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" s="49">
+        <v>11</v>
+      </c>
+      <c r="I130" s="49"/>
+      <c r="J130" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="20" customFormat="1">
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="49">
+        <v>9</v>
+      </c>
+      <c r="D131" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E131" s="49"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="49">
+        <v>64</v>
+      </c>
+      <c r="I131" s="49"/>
+      <c r="J131" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="20" customFormat="1">
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="49">
+        <v>10</v>
+      </c>
+      <c r="D132" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" s="49"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="H132" s="49">
+        <v>0</v>
+      </c>
+      <c r="I132" s="49"/>
+      <c r="J132" s="50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="20" customFormat="1">
+      <c r="A133" s="52"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="49">
+        <v>11</v>
+      </c>
+      <c r="D133" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" s="49"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="49">
+        <v>64</v>
+      </c>
+      <c r="I133" s="49"/>
+      <c r="J133" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="20" customFormat="1">
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="49">
+        <v>12</v>
+      </c>
+      <c r="D134" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H134" s="49">
+        <v>0</v>
+      </c>
+      <c r="I134" s="49"/>
+      <c r="J134" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="35">
+        <v>10</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C136" s="36">
+        <v>1</v>
+      </c>
+      <c r="D136" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G136" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" s="36">
+        <v>32</v>
+      </c>
+      <c r="I136" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136" s="37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="38"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="36">
+        <v>2</v>
+      </c>
+      <c r="D137" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="38"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="36">
+        <v>3</v>
+      </c>
+      <c r="D138" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" s="36"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="36"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="38"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="36">
+        <v>4</v>
+      </c>
+      <c r="D139" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="38"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="36">
+        <v>5</v>
+      </c>
+      <c r="D140" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="36"/>
+      <c r="I140" s="36"/>
+      <c r="J140" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="38"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="36">
+        <v>6</v>
+      </c>
+      <c r="D141" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E141" s="36"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="36"/>
+      <c r="I141" s="36"/>
+      <c r="J141" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="38"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="36">
+        <v>7</v>
+      </c>
+      <c r="D142" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E142" s="36"/>
+      <c r="F142" s="36"/>
+      <c r="G142" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" s="36">
+        <v>11</v>
+      </c>
+      <c r="I142" s="36"/>
+      <c r="J142" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="38"/>
+      <c r="B143" s="38"/>
+      <c r="C143" s="36">
+        <v>8</v>
+      </c>
+      <c r="D143" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E143" s="36"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="36">
+        <v>64</v>
+      </c>
+      <c r="I143" s="36"/>
+      <c r="J143" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="38"/>
+      <c r="B144" s="38"/>
+      <c r="C144" s="36">
+        <v>9</v>
+      </c>
+      <c r="D144" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36"/>
+      <c r="G144" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H144" s="36">
+        <v>0</v>
+      </c>
+      <c r="I144" s="36"/>
+      <c r="J144" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="38"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="36">
+        <v>10</v>
+      </c>
+      <c r="D145" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="36">
+        <v>64</v>
+      </c>
+      <c r="I145" s="36"/>
+      <c r="J145" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="39"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="36">
+        <v>11</v>
+      </c>
+      <c r="D146" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H146" s="36">
+        <v>0</v>
+      </c>
+      <c r="I146" s="36"/>
+      <c r="J146" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A123:A134"/>
+    <mergeCell ref="B123:B134"/>
+    <mergeCell ref="A136:A146"/>
+    <mergeCell ref="B136:B146"/>
+    <mergeCell ref="A96:A106"/>
+    <mergeCell ref="B96:B106"/>
+    <mergeCell ref="A109:A121"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="A69:A81"/>
+    <mergeCell ref="B69:B81"/>
+    <mergeCell ref="A83:A94"/>
+    <mergeCell ref="B83:B94"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B3:B22"/>
+    <mergeCell ref="B24:B41"/>
+    <mergeCell ref="A43:A55"/>
+    <mergeCell ref="B43:B55"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00557C60-772E-43CF-BB02-054F29CA79BF}">
+  <dimension ref="A1:XFA86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:B86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="64.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27 16127:16381" s="1" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="WVG1"/>
+      <c r="WVH1"/>
+      <c r="WVI1"/>
+      <c r="WVJ1"/>
+      <c r="WVK1"/>
+      <c r="WVL1"/>
+      <c r="WVM1"/>
+      <c r="WVN1"/>
+      <c r="WVO1"/>
+      <c r="WVP1"/>
+      <c r="WVQ1"/>
+      <c r="WVR1"/>
+      <c r="WVS1"/>
+      <c r="WVT1"/>
+      <c r="WVU1"/>
+      <c r="WVV1"/>
+      <c r="WVW1"/>
+      <c r="WVX1"/>
+      <c r="WVY1"/>
+      <c r="WVZ1"/>
+      <c r="WWA1"/>
+      <c r="WWB1"/>
+      <c r="WWC1"/>
+      <c r="WWD1"/>
+      <c r="WWE1"/>
+      <c r="WXH1"/>
+      <c r="WXI1"/>
+      <c r="WXJ1"/>
+      <c r="WXK1"/>
+      <c r="WXL1"/>
+      <c r="WXM1"/>
+      <c r="WXN1"/>
+      <c r="WXO1"/>
+      <c r="WXP1"/>
+      <c r="WXQ1"/>
+      <c r="WXR1"/>
+      <c r="WXS1"/>
+      <c r="WXT1"/>
+      <c r="WXU1"/>
+      <c r="WXV1"/>
+      <c r="WXW1"/>
+      <c r="WXX1"/>
+      <c r="WXY1"/>
+      <c r="WXZ1"/>
+      <c r="WYA1"/>
+      <c r="WYB1"/>
+      <c r="WYC1"/>
+      <c r="WYD1"/>
+      <c r="WYE1"/>
+      <c r="WYF1"/>
+      <c r="WYG1"/>
+      <c r="WYH1"/>
+      <c r="WYI1"/>
+      <c r="WYJ1"/>
+      <c r="WYK1"/>
+      <c r="WYL1"/>
+      <c r="WYM1"/>
+      <c r="WYN1"/>
+      <c r="WYO1"/>
+      <c r="WYP1"/>
+      <c r="WYQ1"/>
+      <c r="WYR1"/>
+      <c r="WYS1"/>
+      <c r="WYT1"/>
+      <c r="WYU1"/>
+      <c r="WYV1"/>
+      <c r="WYW1"/>
+      <c r="WYX1"/>
+      <c r="WYY1"/>
+      <c r="WYZ1"/>
+      <c r="WZA1"/>
+      <c r="WZB1"/>
+      <c r="WZC1"/>
+      <c r="WZD1"/>
+      <c r="WZE1"/>
+      <c r="WZF1"/>
+      <c r="WZG1"/>
+      <c r="WZH1"/>
+      <c r="WZI1"/>
+      <c r="WZJ1"/>
+      <c r="WZK1"/>
+      <c r="WZL1"/>
+      <c r="WZM1"/>
+      <c r="WZN1"/>
+      <c r="WZO1"/>
+      <c r="WZP1"/>
+      <c r="WZQ1"/>
+      <c r="WZR1"/>
+      <c r="WZS1"/>
+      <c r="WZT1"/>
+      <c r="WZU1"/>
+      <c r="WZV1"/>
+      <c r="WZW1"/>
+      <c r="WZX1"/>
+      <c r="WZY1"/>
+      <c r="WZZ1"/>
+      <c r="XAA1"/>
+      <c r="XAB1"/>
+      <c r="XAC1"/>
+      <c r="XAD1"/>
+      <c r="XAE1"/>
+      <c r="XAF1"/>
+      <c r="XAG1"/>
+      <c r="XAH1"/>
+      <c r="XAI1"/>
+      <c r="XAJ1"/>
+      <c r="XAK1"/>
+      <c r="XAL1"/>
+      <c r="XAM1"/>
+      <c r="XAN1"/>
+      <c r="XAO1"/>
+      <c r="XAP1"/>
+      <c r="XAQ1"/>
+      <c r="XAR1"/>
+      <c r="XAS1"/>
+      <c r="XAT1"/>
+      <c r="XAU1"/>
+      <c r="XAV1"/>
+      <c r="XAW1"/>
+      <c r="XAX1"/>
+      <c r="XAY1"/>
+      <c r="XAZ1"/>
+      <c r="XBA1"/>
+      <c r="XBB1"/>
+      <c r="XBC1"/>
+      <c r="XBD1"/>
+      <c r="XBE1"/>
+      <c r="XBF1"/>
+      <c r="XBG1"/>
+      <c r="XBH1"/>
+      <c r="XBI1"/>
+      <c r="XBJ1"/>
+      <c r="XBK1"/>
+      <c r="XBL1"/>
+      <c r="XBM1"/>
+      <c r="XBN1"/>
+      <c r="XBO1"/>
+      <c r="XBP1"/>
+      <c r="XBQ1"/>
+      <c r="XBR1"/>
+      <c r="XBS1"/>
+      <c r="XBT1"/>
+      <c r="XBU1"/>
+      <c r="XBV1"/>
+      <c r="XBW1"/>
+      <c r="XBX1"/>
+      <c r="XBY1"/>
+      <c r="XBZ1"/>
+      <c r="XCA1"/>
+      <c r="XCB1"/>
+      <c r="XCC1"/>
+      <c r="XCD1"/>
+      <c r="XCE1"/>
+      <c r="XCF1"/>
+      <c r="XCG1"/>
+      <c r="XCH1"/>
+      <c r="XCI1"/>
+      <c r="XCJ1"/>
+      <c r="XCK1"/>
+      <c r="XCL1"/>
+      <c r="XCM1"/>
+      <c r="XCN1"/>
+      <c r="XCO1"/>
+      <c r="XCP1"/>
+      <c r="XCQ1"/>
+      <c r="XCR1"/>
+      <c r="XCS1"/>
+      <c r="XCT1"/>
+      <c r="XCU1"/>
+      <c r="XCV1"/>
+      <c r="XCW1"/>
+      <c r="XCX1"/>
+      <c r="XCY1"/>
+      <c r="XCZ1"/>
+      <c r="XDA1"/>
+      <c r="XDB1"/>
+      <c r="XDC1"/>
+      <c r="XDD1"/>
+      <c r="XDE1"/>
+      <c r="XDF1"/>
+      <c r="XDG1"/>
+      <c r="XDH1"/>
+      <c r="XDI1"/>
+      <c r="XDJ1"/>
+      <c r="XDK1"/>
+      <c r="XDL1"/>
+      <c r="XDM1"/>
+      <c r="XDN1"/>
+      <c r="XDO1"/>
+      <c r="XDP1"/>
+      <c r="XDQ1"/>
+      <c r="XDR1"/>
+      <c r="XDS1"/>
+      <c r="XDT1"/>
+      <c r="XDU1"/>
+      <c r="XDV1"/>
+      <c r="XDW1"/>
+      <c r="XDX1"/>
+      <c r="XDY1"/>
+      <c r="XDZ1"/>
+      <c r="XEA1"/>
+      <c r="XEB1"/>
+      <c r="XEC1"/>
+      <c r="XED1"/>
+      <c r="XEE1"/>
+      <c r="XEF1"/>
+      <c r="XEG1"/>
+      <c r="XEH1"/>
+      <c r="XEI1"/>
+      <c r="XEJ1"/>
+      <c r="XEK1"/>
+      <c r="XEL1"/>
+      <c r="XEM1"/>
+      <c r="XEN1"/>
+      <c r="XEO1"/>
+      <c r="XEP1"/>
+      <c r="XEQ1"/>
+      <c r="XER1"/>
+      <c r="XES1"/>
+      <c r="XET1"/>
+      <c r="XEU1"/>
+      <c r="XEV1"/>
+      <c r="XEW1"/>
+      <c r="XEX1"/>
+      <c r="XEY1"/>
+      <c r="XEZ1"/>
+      <c r="XFA1"/>
+    </row>
+    <row r="2" spans="1:27 16127:16381" s="2" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="4"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="WVG2"/>
+      <c r="WVH2"/>
+      <c r="WVI2"/>
+      <c r="WVJ2"/>
+      <c r="WVK2"/>
+      <c r="WVL2"/>
+      <c r="WVM2"/>
+      <c r="WVN2"/>
+      <c r="WVO2"/>
+      <c r="WVP2"/>
+      <c r="WVQ2"/>
+      <c r="WVR2"/>
+      <c r="WVS2"/>
+      <c r="WVT2"/>
+      <c r="WVU2"/>
+      <c r="WVV2"/>
+      <c r="WVW2"/>
+      <c r="WVX2"/>
+      <c r="WVY2"/>
+      <c r="WVZ2"/>
+      <c r="WWA2"/>
+      <c r="WWB2"/>
+      <c r="WWC2"/>
+      <c r="WWD2"/>
+      <c r="WWE2"/>
+      <c r="WXH2"/>
+      <c r="WXI2"/>
+      <c r="WXJ2"/>
+      <c r="WXK2"/>
+      <c r="WXL2"/>
+      <c r="WXM2"/>
+      <c r="WXN2"/>
+      <c r="WXO2"/>
+      <c r="WXP2"/>
+      <c r="WXQ2"/>
+      <c r="WXR2"/>
+      <c r="WXS2"/>
+      <c r="WXT2"/>
+      <c r="WXU2"/>
+      <c r="WXV2"/>
+      <c r="WXW2"/>
+      <c r="WXX2"/>
+      <c r="WXY2"/>
+      <c r="WXZ2"/>
+      <c r="WYA2"/>
+      <c r="WYB2"/>
+      <c r="WYC2"/>
+      <c r="WYD2"/>
+      <c r="WYE2"/>
+      <c r="WYF2"/>
+      <c r="WYG2"/>
+      <c r="WYH2"/>
+      <c r="WYI2"/>
+      <c r="WYJ2"/>
+      <c r="WYK2"/>
+      <c r="WYL2"/>
+      <c r="WYM2"/>
+      <c r="WYN2"/>
+      <c r="WYO2"/>
+      <c r="WYP2"/>
+      <c r="WYQ2"/>
+      <c r="WYR2"/>
+      <c r="WYS2"/>
+      <c r="WYT2"/>
+      <c r="WYU2"/>
+      <c r="WYV2"/>
+      <c r="WYW2"/>
+      <c r="WYX2"/>
+      <c r="WYY2"/>
+      <c r="WYZ2"/>
+      <c r="WZA2"/>
+      <c r="WZB2"/>
+      <c r="WZC2"/>
+      <c r="WZD2"/>
+      <c r="WZE2"/>
+      <c r="WZF2"/>
+      <c r="WZG2"/>
+      <c r="WZH2"/>
+      <c r="WZI2"/>
+      <c r="WZJ2"/>
+      <c r="WZK2"/>
+      <c r="WZL2"/>
+      <c r="WZM2"/>
+      <c r="WZN2"/>
+      <c r="WZO2"/>
+      <c r="WZP2"/>
+      <c r="WZQ2"/>
+      <c r="WZR2"/>
+      <c r="WZS2"/>
+      <c r="WZT2"/>
+      <c r="WZU2"/>
+      <c r="WZV2"/>
+      <c r="WZW2"/>
+      <c r="WZX2"/>
+      <c r="WZY2"/>
+      <c r="WZZ2"/>
+      <c r="XAA2"/>
+      <c r="XAB2"/>
+      <c r="XAC2"/>
+      <c r="XAD2"/>
+      <c r="XAE2"/>
+      <c r="XAF2"/>
+      <c r="XAG2"/>
+      <c r="XAH2"/>
+      <c r="XAI2"/>
+      <c r="XAJ2"/>
+      <c r="XAK2"/>
+      <c r="XAL2"/>
+      <c r="XAM2"/>
+      <c r="XAN2"/>
+      <c r="XAO2"/>
+      <c r="XAP2"/>
+      <c r="XAQ2"/>
+      <c r="XAR2"/>
+      <c r="XAS2"/>
+      <c r="XAT2"/>
+      <c r="XAU2"/>
+      <c r="XAV2"/>
+      <c r="XAW2"/>
+      <c r="XAX2"/>
+      <c r="XAY2"/>
+      <c r="XAZ2"/>
+      <c r="XBA2"/>
+      <c r="XBB2"/>
+      <c r="XBC2"/>
+      <c r="XBD2"/>
+      <c r="XBE2"/>
+      <c r="XBF2"/>
+      <c r="XBG2"/>
+      <c r="XBH2"/>
+      <c r="XBI2"/>
+      <c r="XBJ2"/>
+      <c r="XBK2"/>
+      <c r="XBL2"/>
+      <c r="XBM2"/>
+      <c r="XBN2"/>
+      <c r="XBO2"/>
+      <c r="XBP2"/>
+      <c r="XBQ2"/>
+      <c r="XBR2"/>
+      <c r="XBS2"/>
+      <c r="XBT2"/>
+      <c r="XBU2"/>
+      <c r="XBV2"/>
+      <c r="XBW2"/>
+      <c r="XBX2"/>
+      <c r="XBY2"/>
+      <c r="XBZ2"/>
+      <c r="XCA2"/>
+      <c r="XCB2"/>
+      <c r="XCC2"/>
+      <c r="XCD2"/>
+      <c r="XCE2"/>
+      <c r="XCF2"/>
+      <c r="XCG2"/>
+      <c r="XCH2"/>
+      <c r="XCI2"/>
+      <c r="XCJ2"/>
+      <c r="XCK2"/>
+      <c r="XCL2"/>
+      <c r="XCM2"/>
+      <c r="XCN2"/>
+      <c r="XCO2"/>
+      <c r="XCP2"/>
+      <c r="XCQ2"/>
+      <c r="XCR2"/>
+      <c r="XCS2"/>
+      <c r="XCT2"/>
+      <c r="XCU2"/>
+      <c r="XCV2"/>
+      <c r="XCW2"/>
+      <c r="XCX2"/>
+      <c r="XCY2"/>
+      <c r="XCZ2"/>
+      <c r="XDA2"/>
+      <c r="XDB2"/>
+      <c r="XDC2"/>
+      <c r="XDD2"/>
+      <c r="XDE2"/>
+      <c r="XDF2"/>
+      <c r="XDG2"/>
+      <c r="XDH2"/>
+      <c r="XDI2"/>
+      <c r="XDJ2"/>
+      <c r="XDK2"/>
+      <c r="XDL2"/>
+      <c r="XDM2"/>
+      <c r="XDN2"/>
+      <c r="XDO2"/>
+      <c r="XDP2"/>
+      <c r="XDQ2"/>
+      <c r="XDR2"/>
+      <c r="XDS2"/>
+      <c r="XDT2"/>
+      <c r="XDU2"/>
+      <c r="XDV2"/>
+      <c r="XDW2"/>
+      <c r="XDX2"/>
+      <c r="XDY2"/>
+      <c r="XDZ2"/>
+      <c r="XEA2"/>
+      <c r="XEB2"/>
+      <c r="XEC2"/>
+      <c r="XED2"/>
+      <c r="XEE2"/>
+      <c r="XEF2"/>
+      <c r="XEG2"/>
+      <c r="XEH2"/>
+      <c r="XEI2"/>
+      <c r="XEJ2"/>
+      <c r="XEK2"/>
+      <c r="XEL2"/>
+      <c r="XEM2"/>
+      <c r="XEN2"/>
+      <c r="XEO2"/>
+      <c r="XEP2"/>
+      <c r="XEQ2"/>
+      <c r="XER2"/>
+      <c r="XES2"/>
+      <c r="XET2"/>
+      <c r="XEU2"/>
+      <c r="XEV2"/>
+      <c r="XEW2"/>
+      <c r="XEX2"/>
+      <c r="XEY2"/>
+      <c r="XEZ2"/>
+      <c r="XFA2"/>
+    </row>
     <row r="3" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A3" s="29">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9">
@@ -1505,8 +5314,8 @@
       </c>
     </row>
     <row r="4" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
@@ -1525,8 +5334,8 @@
       </c>
     </row>
     <row r="5" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="9">
         <v>2</v>
       </c>
@@ -1545,8 +5354,8 @@
       </c>
     </row>
     <row r="6" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="9">
         <v>3</v>
       </c>
@@ -1567,8 +5376,8 @@
       </c>
     </row>
     <row r="7" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="9">
         <v>4</v>
       </c>
@@ -1587,8 +5396,8 @@
       </c>
     </row>
     <row r="8" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="9">
         <v>5</v>
       </c>
@@ -1607,8 +5416,8 @@
       </c>
     </row>
     <row r="9" spans="1:27 16127:16381" s="11" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="9">
         <v>6</v>
       </c>
@@ -1627,8 +5436,8 @@
       </c>
     </row>
     <row r="10" spans="1:27 16127:16381" s="11" customFormat="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="9">
         <v>7</v>
       </c>
@@ -1649,8 +5458,8 @@
       </c>
     </row>
     <row r="11" spans="1:27 16127:16381" s="11" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="9">
         <v>8</v>
       </c>
@@ -1671,8 +5480,8 @@
       </c>
     </row>
     <row r="12" spans="1:27 16127:16381" s="15" customFormat="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="9">
         <v>9</v>
       </c>
@@ -1937,8 +5746,8 @@
       <c r="XFA12" s="14"/>
     </row>
     <row r="13" spans="1:27 16127:16381" s="11" customFormat="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="9">
         <v>10</v>
       </c>
@@ -1959,8 +5768,8 @@
       </c>
     </row>
     <row r="14" spans="1:27 16127:16381" s="11" customFormat="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="9">
         <v>11</v>
       </c>
@@ -1981,8 +5790,8 @@
       </c>
     </row>
     <row r="15" spans="1:27 16127:16381" s="11" customFormat="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="9">
         <v>12</v>
       </c>
@@ -2003,8 +5812,8 @@
       </c>
     </row>
     <row r="16" spans="1:27 16127:16381" s="11" customFormat="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="9">
         <v>13</v>
       </c>
@@ -2026,10 +5835,10 @@
     </row>
     <row r="17" spans="1:10" s="11" customFormat="1"/>
     <row r="18" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A18" s="31">
+      <c r="A18" s="23">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="16">
@@ -2056,8 +5865,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="16">
         <v>2</v>
       </c>
@@ -2076,8 +5885,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="15" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="16">
         <v>3</v>
       </c>
@@ -2096,8 +5905,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="16">
         <v>4</v>
       </c>
@@ -2116,8 +5925,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="16">
         <v>4</v>
       </c>
@@ -2136,8 +5945,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="16">
         <v>5</v>
       </c>
@@ -2156,8 +5965,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="16">
         <v>6</v>
       </c>
@@ -2176,8 +5985,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="16">
         <v>7</v>
       </c>
@@ -2196,8 +6005,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="16">
         <v>8</v>
       </c>
@@ -2216,8 +6025,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="16">
         <v>9</v>
       </c>
@@ -2236,8 +6045,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="16">
         <v>10</v>
       </c>
@@ -2256,8 +6065,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="16">
         <v>11</v>
       </c>
@@ -2276,8 +6085,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="16">
         <v>12</v>
       </c>
@@ -2296,8 +6105,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="11" customFormat="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="16">
         <v>13</v>
       </c>
@@ -2318,8 +6127,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="11" customFormat="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="16">
         <v>14</v>
       </c>
@@ -2340,8 +6149,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" s="11" customFormat="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="16">
         <v>15</v>
       </c>
@@ -2362,8 +6171,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" s="11" customFormat="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="16">
         <v>16</v>
       </c>
@@ -2384,8 +6193,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="11" customFormat="1">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="16">
         <v>17</v>
       </c>
@@ -2405,1158 +6214,1041 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A37" s="26">
+    <row r="37" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A37" s="30">
         <v>3</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="31">
         <v>1</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="21" t="s">
+      <c r="E37" s="31"/>
+      <c r="F37" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="20">
+      <c r="H37" s="31">
         <v>32</v>
       </c>
-      <c r="I37" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="21" t="s">
+      <c r="I37" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="31">
+        <v>2</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="31">
+        <v>3</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="31">
+        <v>4</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="31">
+        <v>4</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="31">
+        <v>5</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="31">
+        <v>6</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="31">
+        <v>7</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="20" customFormat="1">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="31">
+        <v>8</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="31">
+        <v>11</v>
+      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="20" customFormat="1">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="31">
+        <v>9</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="31">
+        <v>64</v>
+      </c>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="20" customFormat="1">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="31">
+        <v>10</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="31">
+        <v>0</v>
+      </c>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="20" customFormat="1">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="31">
+        <v>11</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="31">
+        <v>64</v>
+      </c>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="20" customFormat="1">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="31">
+        <v>12</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="31">
+        <v>0</v>
+      </c>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A51" s="35">
+        <v>4</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="36">
+        <v>1</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="36">
+        <v>32</v>
+      </c>
+      <c r="I51" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="36">
+        <v>2</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="20" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="36">
+        <v>3</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="37" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="20">
+    <row r="54" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="36">
+        <v>5</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="36">
+        <v>6</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="36">
+        <v>7</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="20" customFormat="1">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="36">
+        <v>8</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="36">
+        <v>11</v>
+      </c>
+      <c r="I57" s="36"/>
+      <c r="J57" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="20" customFormat="1">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="36">
+        <v>9</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="36">
+        <v>64</v>
+      </c>
+      <c r="I58" s="36"/>
+      <c r="J58" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="20" customFormat="1">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="36">
+        <v>10</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="36">
+        <v>0</v>
+      </c>
+      <c r="I59" s="36"/>
+      <c r="J59" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="20" customFormat="1">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="36">
+        <v>11</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="36">
+        <v>64</v>
+      </c>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="20" customFormat="1">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="36">
+        <v>12</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H61" s="36">
+        <v>0</v>
+      </c>
+      <c r="I61" s="36"/>
+      <c r="J61" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A63" s="40">
+        <v>5</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="41">
+        <v>1</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="41">
+        <v>32</v>
+      </c>
+      <c r="I63" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="41">
         <v>2</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D64" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="41">
+        <v>3</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="41">
+        <v>4</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="41">
+        <v>5</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="41">
+        <v>6</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="41">
+        <v>7</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="14" customFormat="1">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="41">
+        <v>8</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="41">
+        <v>11</v>
+      </c>
+      <c r="I70" s="41"/>
+      <c r="J70" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="14" customFormat="1">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="41">
+        <v>9</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="41">
         <v>64</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="25" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="20">
+      <c r="I71" s="41"/>
+      <c r="J71" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="14" customFormat="1">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="41">
+        <v>10</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="41">
+        <v>0</v>
+      </c>
+      <c r="I72" s="41"/>
+      <c r="J72" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="14" customFormat="1">
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="41">
+        <v>11</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="41">
+        <v>64</v>
+      </c>
+      <c r="I73" s="41"/>
+      <c r="J73" s="42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="14" customFormat="1">
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="41">
+        <v>12</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="41">
+        <v>0</v>
+      </c>
+      <c r="I74" s="41"/>
+      <c r="J74" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="45" customFormat="1"/>
+    <row r="76" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A76" s="40">
         <v>3</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="20">
-        <v>4</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="20">
-        <v>4</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="20">
-        <v>5</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="20">
-        <v>6</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="20">
-        <v>7</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21" t="s">
+      <c r="B76" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="41">
+        <v>1</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="20">
-        <v>8</v>
-      </c>
-      <c r="D45" s="21" t="s">
+      <c r="H76" s="41">
+        <v>32</v>
+      </c>
+      <c r="I76" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="41">
+        <v>2</v>
+      </c>
+      <c r="D77" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21" t="s">
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="15" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="41">
+        <v>3</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="41">
+        <v>10</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="41">
+        <v>11</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="41">
+        <v>12</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="14" customFormat="1">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="41">
+        <v>13</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="20">
-        <v>9</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="20">
-        <v>10</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="20">
-        <v>11</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="20">
-        <v>12</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="22" customFormat="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="20">
-        <v>13</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H50" s="20">
-        <v>11</v>
-      </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="21" t="s">
+      <c r="H82" s="41">
+        <v>11</v>
+      </c>
+      <c r="I82" s="41"/>
+      <c r="J82" s="42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="22" customFormat="1">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="20">
+    <row r="83" spans="1:10" s="14" customFormat="1">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="41">
         <v>14</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D83" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="20">
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="41">
         <v>64</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21" t="s">
+      <c r="I83" s="41"/>
+      <c r="J83" s="42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="22" customFormat="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="20">
+    <row r="84" spans="1:10" s="14" customFormat="1">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="41">
         <v>15</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D84" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21" t="s">
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H84" s="41">
         <v>0</v>
       </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21" t="s">
+      <c r="I84" s="41"/>
+      <c r="J84" s="42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="22" customFormat="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="20">
+    <row r="85" spans="1:10" s="14" customFormat="1">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="41">
         <v>16</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D85" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="20">
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="41">
         <v>64</v>
       </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21" t="s">
+      <c r="I85" s="41"/>
+      <c r="J85" s="42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="22" customFormat="1">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="20">
+    <row r="86" spans="1:10" s="14" customFormat="1">
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="41">
         <v>17</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D86" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="21" t="s">
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H86" s="41">
         <v>0</v>
       </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="21" t="s">
+      <c r="I86" s="41"/>
+      <c r="J86" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A56" s="26">
-        <v>3</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="20">
-        <v>1</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H56" s="20">
-        <v>32</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="20">
-        <v>2</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="25" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="20">
-        <v>3</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="20">
-        <v>4</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="20">
-        <v>4</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="20">
-        <v>5</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="20">
-        <v>6</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="20">
-        <v>7</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="20">
-        <v>8</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="20">
-        <v>9</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="20">
-        <v>10</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="20">
-        <v>11</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="20">
-        <v>12</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="22" customFormat="1">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="20">
-        <v>13</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="20">
-        <v>11</v>
-      </c>
-      <c r="I69" s="20"/>
-      <c r="J69" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="22" customFormat="1">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="20">
-        <v>14</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="20">
-        <v>64</v>
-      </c>
-      <c r="I70" s="20"/>
-      <c r="J70" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="22" customFormat="1">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="20">
-        <v>15</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" s="20">
-        <v>0</v>
-      </c>
-      <c r="I71" s="20"/>
-      <c r="J71" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="22" customFormat="1">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="20">
-        <v>16</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="20">
-        <v>64</v>
-      </c>
-      <c r="I72" s="20"/>
-      <c r="J72" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="22" customFormat="1">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="20">
-        <v>17</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" s="20">
-        <v>0</v>
-      </c>
-      <c r="I73" s="20"/>
-      <c r="J73" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A75" s="26">
-        <v>3</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="20">
-        <v>1</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" s="20">
-        <v>32</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J75" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="20">
-        <v>2</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="25" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="20">
-        <v>3</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="20">
-        <v>4</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="20">
-        <v>4</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="20">
-        <v>5</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="20">
-        <v>6</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="20">
-        <v>7</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="20">
-        <v>8</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="20">
-        <v>9</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="20">
-        <v>10</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="20">
-        <v>11</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" s="22" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="20">
-        <v>12</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="22" customFormat="1">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="20">
-        <v>13</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" s="20">
-        <v>11</v>
-      </c>
-      <c r="I88" s="20"/>
-      <c r="J88" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="22" customFormat="1">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="20">
-        <v>14</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="20">
-        <v>64</v>
-      </c>
-      <c r="I89" s="20"/>
-      <c r="J89" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" s="22" customFormat="1">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="20">
-        <v>15</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" s="20">
-        <v>0</v>
-      </c>
-      <c r="I90" s="20"/>
-      <c r="J90" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="22" customFormat="1">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="20">
-        <v>16</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="20">
-        <v>64</v>
-      </c>
-      <c r="I91" s="20"/>
-      <c r="J91" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="22" customFormat="1">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="20">
-        <v>17</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" s="20">
-        <v>0</v>
-      </c>
-      <c r="I92" s="20"/>
-      <c r="J92" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A51:A61"/>
+    <mergeCell ref="B51:B61"/>
+    <mergeCell ref="A63:A74"/>
+    <mergeCell ref="B63:B74"/>
+    <mergeCell ref="A76:A86"/>
+    <mergeCell ref="B76:B86"/>
     <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
     <mergeCell ref="A18:A35"/>
-    <mergeCell ref="B3:B16"/>
     <mergeCell ref="B18:B35"/>
-    <mergeCell ref="A37:A54"/>
-    <mergeCell ref="B37:B54"/>
-    <mergeCell ref="A56:A73"/>
-    <mergeCell ref="B56:B73"/>
-    <mergeCell ref="A75:A92"/>
-    <mergeCell ref="B75:B92"/>
+    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="B37:B49"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3564,12 +7256,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B1" sqref="B1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3628,10 +7320,10 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A3" s="34">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="7">
@@ -3658,8 +7350,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="7">
         <v>2</v>
       </c>
@@ -3678,8 +7370,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="7">
         <v>3</v>
       </c>
@@ -3698,8 +7390,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="7">
         <v>4</v>
       </c>
@@ -3716,8 +7408,8 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="7">
         <v>5</v>
       </c>
@@ -3738,8 +7430,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
@@ -3760,8 +7452,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="7">
         <v>7</v>
       </c>
@@ -3782,8 +7474,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="7">
         <v>8</v>
       </c>
@@ -3804,8 +7496,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="7">
         <v>9</v>
       </c>
@@ -3826,10 +7518,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="26">
         <v>2</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="29" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="7">
@@ -3856,8 +7548,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="7">
         <v>2</v>
       </c>
@@ -3874,8 +7566,8 @@
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="7">
         <v>3</v>
       </c>
@@ -3892,8 +7584,8 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="7">
         <v>4</v>
       </c>
@@ -3910,8 +7602,8 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="7">
         <v>5</v>
       </c>
@@ -3928,8 +7620,8 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="7">
         <v>8</v>
       </c>
@@ -3950,8 +7642,8 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="7">
         <v>9</v>
       </c>
@@ -3972,8 +7664,8 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="7">
         <v>10</v>
       </c>
@@ -3994,8 +7686,8 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="7">
         <v>11</v>
       </c>
@@ -4016,8 +7708,8 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="7">
         <v>12</v>
       </c>
